--- a/tables.xlsx
+++ b/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="246">
   <si>
     <t>&lt;tr&gt;</t>
   </si>
@@ -625,6 +625,135 @@
   </si>
   <si>
     <t>дней</t>
+  </si>
+  <si>
+    <t>Окончание</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Активация</t>
+  </si>
+  <si>
+    <t>Биллинг</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>2018-09-20</t>
+  </si>
+  <si>
+    <t>Предоставление обычного номера (2837)</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Замена номера</t>
+  </si>
+  <si>
+    <t>Завершен</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Пакет 512</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>Пакет 64</t>
+  </si>
+  <si>
+    <t>Пакет 64+50</t>
+  </si>
+  <si>
+    <t>Адрес по прописке физ. лица</t>
+  </si>
+  <si>
+    <t>Тип документа удостоверяющего личность</t>
+  </si>
+  <si>
+    <t>Номер документа</t>
+  </si>
+  <si>
+    <t>Дата выдачи документа</t>
+  </si>
+  <si>
+    <t>Название организации выдавшей документ</t>
+  </si>
+  <si>
+    <t>Дата рождения по документу</t>
+  </si>
+  <si>
+    <t>Серия документа</t>
+  </si>
+  <si>
+    <t>Корреспондентский счет</t>
+  </si>
+  <si>
+    <t>Причина блокировки аккунта</t>
+  </si>
+  <si>
+    <t>Дата персонализации сим-карты</t>
+  </si>
+  <si>
+    <t>Хранить сумму платежа, создаваемого по USSD-комманде *1111# number PaymentFromCustToAgent</t>
+  </si>
+  <si>
+    <t>Тип клиента</t>
+  </si>
+  <si>
+    <t>Тестовый</t>
+  </si>
+  <si>
+    <t>Депозит</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Петров Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>123456 Забугорск, ул. Клевая 17, кв.56</t>
+  </si>
+  <si>
+    <t>123456 Забугорск, ул. Клевая 17, кв.57</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>123 456</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
+  </si>
+  <si>
+    <t>ТЖР №12456</t>
+  </si>
+  <si>
+    <t>2001-05-08</t>
+  </si>
+  <si>
+    <t>АЗ</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -634,7 +763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,21 +788,49 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -685,13 +842,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -988,17 +1148,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB162"/>
+  <dimension ref="A1:BB181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG77" sqref="AG77"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -7749,31 +7909,957 @@
       <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:26">
-      <c r="C154" s="5"/>
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" t="s">
+        <v>113</v>
+      </c>
+      <c r="D154" t="s">
+        <v>55</v>
+      </c>
+      <c r="E154" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" t="s">
+        <v>205</v>
+      </c>
+      <c r="G154" t="s">
+        <v>55</v>
+      </c>
+      <c r="H154" t="s">
+        <v>54</v>
+      </c>
+      <c r="I154" t="s">
+        <v>203</v>
+      </c>
+      <c r="J154" t="s">
+        <v>55</v>
+      </c>
+      <c r="K154" t="s">
+        <v>54</v>
+      </c>
+      <c r="L154" t="s">
+        <v>206</v>
+      </c>
+      <c r="M154" t="s">
+        <v>55</v>
+      </c>
+      <c r="N154" t="s">
+        <v>54</v>
+      </c>
+      <c r="O154" t="s">
+        <v>204</v>
+      </c>
+      <c r="P154" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>54</v>
+      </c>
+      <c r="R154" t="s">
+        <v>213</v>
+      </c>
+      <c r="S154" t="s">
+        <v>55</v>
+      </c>
+      <c r="T154" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" spans="1:26">
-      <c r="C155" s="5"/>
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J155" t="s">
+        <v>3</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M155" t="s">
+        <v>3</v>
+      </c>
+      <c r="N155" t="s">
+        <v>1</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P155" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>1</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S155" t="s">
+        <v>3</v>
+      </c>
+      <c r="T155" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="156" spans="1:26">
-      <c r="C156" s="5"/>
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G156" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1"/>
+      <c r="J156" t="s">
+        <v>3</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M156" t="s">
+        <v>3</v>
+      </c>
+      <c r="N156" t="s">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P156" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>1</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S156" t="s">
+        <v>3</v>
+      </c>
+      <c r="T156" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="157" spans="1:26">
-      <c r="C157" s="5"/>
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G157" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J157" t="s">
+        <v>3</v>
+      </c>
+      <c r="K157" t="s">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M157" t="s">
+        <v>3</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P157" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>1</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S157" t="s">
+        <v>3</v>
+      </c>
+      <c r="T157" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:26">
-      <c r="C158" s="5"/>
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J158" t="s">
+        <v>3</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M158" t="s">
+        <v>3</v>
+      </c>
+      <c r="N158" t="s">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P158" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>1</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S158" t="s">
+        <v>3</v>
+      </c>
+      <c r="T158" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="159" spans="1:26">
-      <c r="C159" s="5"/>
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J159" t="s">
+        <v>3</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M159" t="s">
+        <v>3</v>
+      </c>
+      <c r="N159" t="s">
+        <v>1</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P159" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>1</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S159" t="s">
+        <v>3</v>
+      </c>
+      <c r="T159" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="160" spans="1:26">
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="3:3">
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="5"/>
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G160" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J160" t="s">
+        <v>3</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M160" t="s">
+        <v>3</v>
+      </c>
+      <c r="N160" t="s">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P160" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>1</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S160" t="s">
+        <v>3</v>
+      </c>
+      <c r="T160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G161" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J161" t="s">
+        <v>3</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M161" t="s">
+        <v>3</v>
+      </c>
+      <c r="N161" t="s">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P161" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>1</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S161" t="s">
+        <v>3</v>
+      </c>
+      <c r="T161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="C162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="1:20" ht="15.75" thickBot="1">
+      <c r="C163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>235</v>
+      </c>
+      <c r="G164" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G165" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H166" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="1:20" ht="33.75" thickBot="1">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D167" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G167" t="s">
+        <v>3</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D168" t="s">
+        <v>55</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G168" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="1:20" ht="33.75" thickBot="1">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D170" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G170" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" t="s">
+        <v>10</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="R170" s="3"/>
+    </row>
+    <row r="171" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G171" t="s">
+        <v>3</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D172" t="s">
+        <v>55</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G172" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D173" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" t="s">
+        <v>3</v>
+      </c>
+      <c r="H173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D174" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" t="s">
+        <v>3</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G175" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="33.75" thickBot="1">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D176" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D177" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G177" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D178" t="s">
+        <v>55</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G179" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="C180" s="1"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="C181" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="250">
   <si>
     <t>&lt;tr&gt;</t>
   </si>
@@ -129,15 +129,6 @@
     <t>8938001987654321098</t>
   </si>
   <si>
-    <t>Устройство</t>
-  </si>
-  <si>
-    <t>Расположение</t>
-  </si>
-  <si>
-    <t>Координаты</t>
-  </si>
-  <si>
     <t>2320588839573820</t>
   </si>
   <si>
@@ -147,54 +138,12 @@
     <t>Настой</t>
   </si>
   <si>
-    <t>Терминал E195</t>
-  </si>
-  <si>
-    <t>Сивуха Бе-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кран </t>
-  </si>
-  <si>
-    <t>Башенный кран</t>
-  </si>
-  <si>
-    <t>Бульдозер</t>
-  </si>
-  <si>
-    <t>Датчик TRY-89</t>
-  </si>
-  <si>
-    <t>Датчик TRY-90</t>
-  </si>
-  <si>
-    <t>Датчик TRY-91</t>
-  </si>
-  <si>
-    <t>Стац</t>
-  </si>
-  <si>
-    <t>Моб</t>
-  </si>
-  <si>
-    <t>41°24'12.2"N  2°10'26.5"E</t>
-  </si>
-  <si>
     <t>&lt;th&gt;</t>
   </si>
   <si>
     <t>&lt;/th&gt;</t>
   </si>
   <si>
-    <t>Датчик TRY-92</t>
-  </si>
-  <si>
-    <t>Датчик TRY-93</t>
-  </si>
-  <si>
-    <t>Датчик TRY-94</t>
-  </si>
-  <si>
     <t>Телефон</t>
   </si>
   <si>
@@ -204,12 +153,6 @@
     <t>Блокировка</t>
   </si>
   <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Unblocked</t>
-  </si>
-  <si>
     <t>&lt;/span&gt;</t>
   </si>
   <si>
@@ -348,12 +291,6 @@
     <t>balance</t>
   </si>
   <si>
-    <t>iPlatforms</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>ОАО Нино</t>
   </si>
   <si>
@@ -754,6 +691,81 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>SIM лист</t>
+  </si>
+  <si>
+    <t>Дата активации</t>
+  </si>
+  <si>
+    <t>2018-06-06</t>
+  </si>
+  <si>
+    <t>2018-06-09</t>
+  </si>
+  <si>
+    <t>2018-06-12</t>
+  </si>
+  <si>
+    <t>2018-06-15</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>2018-06-24</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-06-16</t>
+  </si>
+  <si>
+    <t>Продукт</t>
+  </si>
+  <si>
+    <t>Моя Армения Москва</t>
+  </si>
+  <si>
+    <t>Моя Армения для ЮЛ</t>
+  </si>
+  <si>
+    <t>ФИО владельца</t>
+  </si>
+  <si>
+    <t>Иванов Иван Петрович</t>
+  </si>
+  <si>
+    <t>Пертов Петр Иванович</t>
+  </si>
+  <si>
+    <t>Кубейдыров Мурза Бебухаметдырович</t>
+  </si>
+  <si>
+    <t>Бойко Степан Андреевич</t>
+  </si>
+  <si>
+    <t>Бендер Адольф Петрович</t>
+  </si>
+  <si>
+    <t>Пучков Макар Степанович</t>
+  </si>
+  <si>
+    <t>Пустовойт Петр Иванович</t>
+  </si>
+  <si>
+    <t>Сорокина Ирина Петровна</t>
+  </si>
+  <si>
+    <t>Да</t>
   </si>
 </sst>
 </file>
@@ -842,7 +854,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -850,6 +862,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB181"/>
+  <dimension ref="A1:AY190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="Y25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU44" sqref="AU44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2381,7 +2396,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Март&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004580&lt;/td&gt;&lt;td&gt;Счет-фактура&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Апрель&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004581&lt;/td&gt;&lt;td&gt;Детализация&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Май&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004582&lt;/td&gt;&lt;td&gt;Акт выполненных работ&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Июнь&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004583&lt;/td&gt;&lt;td&gt;Счет с печ.&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Июль&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004584&lt;/td&gt;&lt;td&gt;Счет-фактура&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Август&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004585&lt;/td&gt;&lt;td&gt;Счет&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Сентябрь&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004586&lt;/td&gt;&lt;td&gt;Счет-фактура&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2906,7 +2921,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Октябрь&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004587&lt;/td&gt;&lt;td&gt;Детализация&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +2996,7 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Ноябрь&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004588&lt;/td&gt;&lt;td&gt;Акт выполненных работ&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3056,153 +3071,141 @@
         <v>&lt;tr&gt;&lt;td&gt;2019&lt;/td&gt;&lt;td&gt;Декабрь&lt;/td&gt;&lt;td&gt;ООО ДОМИНО&lt;/td&gt;&lt;td&gt;51220004589&lt;/td&gt;&lt;td&gt;Счет с печ.&lt;/td&gt;&lt;td&gt;YM.Pro_512200000000010876_2018-06_invoice_X.PDF&lt;/td&gt;&lt;td&gt;Скачать&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
         <v>35</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L44" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="M44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O44" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="V44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="Y44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="AB44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AD44" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AE44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="AH44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AI44" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>99</v>
       </c>
       <c r="AK44" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>100</v>
       </c>
       <c r="AN44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AO44" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>44</v>
       </c>
       <c r="AS44" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AT44" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY44" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA44" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
         <v>3</v>
@@ -3237,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="M45" t="s">
         <v>3</v>
@@ -3246,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="P45" t="s">
         <v>3</v>
@@ -3254,101 +3257,88 @@
       <c r="Q45" t="s">
         <v>1</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="1"/>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45">
         <v>512</v>
       </c>
-      <c r="S45" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1</v>
-      </c>
-      <c r="U45" t="s">
-        <v>116</v>
-      </c>
-      <c r="V45" t="s">
-        <v>3</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45">
+      <c r="Y45" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD45">
         <v>50</v>
       </c>
-      <c r="Y45" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>1</v>
-      </c>
       <c r="AE45" t="s">
         <v>3</v>
       </c>
       <c r="AF45" t="s">
         <v>1</v>
       </c>
+      <c r="AG45" t="s">
+        <v>98</v>
+      </c>
       <c r="AH45" t="s">
         <v>3</v>
       </c>
       <c r="AI45" t="s">
         <v>1</v>
       </c>
-      <c r="AJ45" t="s">
-        <v>60</v>
-      </c>
       <c r="AK45" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>1</v>
       </c>
       <c r="AN45" t="s">
         <v>3</v>
       </c>
       <c r="AO45" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>45</v>
       </c>
       <c r="AS45" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY45" s="1"/>
+    </row>
+    <row r="46" spans="1:51">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3374,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s">
         <v>3</v>
@@ -3383,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="M46" t="s">
         <v>3</v>
@@ -3392,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="P46" t="s">
         <v>3</v>
@@ -3400,101 +3390,88 @@
       <c r="Q46" t="s">
         <v>1</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1"/>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V46" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X46">
         <v>512</v>
       </c>
-      <c r="S46" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1</v>
-      </c>
-      <c r="U46" t="s">
-        <v>116</v>
-      </c>
-      <c r="V46" t="s">
-        <v>3</v>
-      </c>
-      <c r="W46" t="s">
-        <v>1</v>
-      </c>
-      <c r="X46">
+      <c r="Y46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD46">
         <v>50</v>
       </c>
-      <c r="Y46" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>1</v>
-      </c>
       <c r="AE46" t="s">
         <v>3</v>
       </c>
       <c r="AF46" t="s">
         <v>1</v>
       </c>
+      <c r="AG46" t="s">
+        <v>98</v>
+      </c>
       <c r="AH46" t="s">
         <v>3</v>
       </c>
       <c r="AI46" t="s">
         <v>1</v>
       </c>
-      <c r="AJ46" t="s">
-        <v>65</v>
-      </c>
       <c r="AK46" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>1</v>
       </c>
       <c r="AN46" t="s">
         <v>3</v>
       </c>
       <c r="AO46" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>45</v>
       </c>
       <c r="AS46" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY46" s="1"/>
+    </row>
+    <row r="47" spans="1:51">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
         <v>3</v>
@@ -3529,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s">
         <v>3</v>
@@ -3538,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="P47" t="s">
         <v>3</v>
@@ -3546,101 +3523,88 @@
       <c r="Q47" t="s">
         <v>1</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1"/>
+      <c r="S47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V47" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47">
         <v>512</v>
       </c>
-      <c r="S47" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
-        <v>116</v>
-      </c>
-      <c r="V47" t="s">
-        <v>3</v>
-      </c>
-      <c r="W47" t="s">
-        <v>1</v>
-      </c>
-      <c r="X47">
+      <c r="Y47" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD47">
         <v>50</v>
       </c>
-      <c r="Y47" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>1</v>
-      </c>
       <c r="AE47" t="s">
         <v>3</v>
       </c>
       <c r="AF47" t="s">
         <v>1</v>
       </c>
+      <c r="AG47" t="s">
+        <v>98</v>
+      </c>
       <c r="AH47" t="s">
         <v>3</v>
       </c>
       <c r="AI47" t="s">
         <v>1</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>65</v>
-      </c>
       <c r="AK47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>1</v>
       </c>
       <c r="AN47" t="s">
         <v>3</v>
       </c>
       <c r="AO47" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>45</v>
       </c>
       <c r="AS47" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW47" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY47" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA47" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY47" s="1"/>
+    </row>
+    <row r="48" spans="1:51">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
         <v>3</v>
@@ -3675,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="M48" t="s">
         <v>3</v>
@@ -3684,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="P48" t="s">
         <v>3</v>
@@ -3692,101 +3656,88 @@
       <c r="Q48" t="s">
         <v>1</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="1"/>
+      <c r="S48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" t="s">
+        <v>1</v>
+      </c>
+      <c r="X48">
         <v>512</v>
       </c>
-      <c r="S48" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" t="s">
-        <v>1</v>
-      </c>
-      <c r="U48" t="s">
-        <v>116</v>
-      </c>
-      <c r="V48" t="s">
-        <v>3</v>
-      </c>
-      <c r="W48" t="s">
-        <v>1</v>
-      </c>
-      <c r="X48">
+      <c r="Y48" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD48">
         <v>50</v>
       </c>
-      <c r="Y48" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>1</v>
-      </c>
       <c r="AE48" t="s">
         <v>3</v>
       </c>
       <c r="AF48" t="s">
         <v>1</v>
       </c>
+      <c r="AG48" t="s">
+        <v>98</v>
+      </c>
       <c r="AH48" t="s">
         <v>3</v>
       </c>
       <c r="AI48" t="s">
         <v>1</v>
       </c>
-      <c r="AJ48" t="s">
-        <v>65</v>
-      </c>
       <c r="AK48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>1</v>
       </c>
       <c r="AN48" t="s">
         <v>3</v>
       </c>
       <c r="AO48" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>45</v>
       </c>
       <c r="AS48" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX48" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA48" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY48" s="1"/>
+    </row>
+    <row r="49" spans="1:51">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -3821,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="M49" t="s">
         <v>3</v>
@@ -3829,19 +3780,25 @@
       <c r="N49" t="s">
         <v>1</v>
       </c>
-      <c r="O49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="P49" t="s">
         <v>3</v>
       </c>
       <c r="Q49" t="s">
         <v>1</v>
       </c>
+      <c r="R49" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="S49" t="s">
         <v>3</v>
       </c>
       <c r="T49" t="s">
         <v>1</v>
       </c>
+      <c r="U49" s="1"/>
       <c r="V49" t="s">
         <v>3</v>
       </c>
@@ -3860,71 +3817,54 @@
       <c r="AC49" t="s">
         <v>1</v>
       </c>
-      <c r="AD49">
+      <c r="AE49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ49">
         <v>500</v>
       </c>
-      <c r="AE49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>65</v>
-      </c>
       <c r="AK49" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>1</v>
       </c>
       <c r="AM49" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN49" t="s">
         <v>3</v>
       </c>
       <c r="AO49" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>45</v>
       </c>
       <c r="AS49" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT49" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY49" s="1"/>
+    </row>
+    <row r="50" spans="1:51">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
         <v>3</v>
@@ -3959,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s">
         <v>3</v>
@@ -3967,19 +3907,25 @@
       <c r="N50" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="P50" t="s">
         <v>3</v>
       </c>
       <c r="Q50" t="s">
         <v>1</v>
       </c>
+      <c r="R50" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="S50" t="s">
         <v>3</v>
       </c>
       <c r="T50" t="s">
         <v>1</v>
       </c>
+      <c r="U50" s="1"/>
       <c r="V50" t="s">
         <v>3</v>
       </c>
@@ -3998,71 +3944,54 @@
       <c r="AC50" t="s">
         <v>1</v>
       </c>
-      <c r="AD50">
+      <c r="AE50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ50">
         <v>500</v>
       </c>
-      <c r="AE50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>60</v>
-      </c>
       <c r="AK50" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN50" t="s">
         <v>3</v>
       </c>
       <c r="AO50" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>45</v>
       </c>
       <c r="AS50" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT50" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY50" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY50" s="1"/>
+    </row>
+    <row r="51" spans="1:51">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
         <v>3</v>
@@ -4097,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s">
         <v>3</v>
@@ -4105,19 +4034,25 @@
       <c r="N51" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="P51" t="s">
         <v>3</v>
       </c>
       <c r="Q51" t="s">
         <v>1</v>
       </c>
+      <c r="R51" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="S51" t="s">
         <v>3</v>
       </c>
       <c r="T51" t="s">
         <v>1</v>
       </c>
+      <c r="U51" s="1"/>
       <c r="V51" t="s">
         <v>3</v>
       </c>
@@ -4136,71 +4071,54 @@
       <c r="AC51" t="s">
         <v>1</v>
       </c>
-      <c r="AD51">
+      <c r="AE51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ51">
         <v>500</v>
       </c>
-      <c r="AE51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>65</v>
-      </c>
       <c r="AK51" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>1</v>
       </c>
       <c r="AM51" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN51" t="s">
         <v>3</v>
       </c>
       <c r="AO51" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>45</v>
       </c>
       <c r="AS51" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT51" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA51" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY51" s="1"/>
+    </row>
+    <row r="52" spans="1:51">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4226,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
         <v>3</v>
@@ -4234,28 +4152,32 @@
       <c r="K52" t="s">
         <v>1</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="L52" s="1"/>
       <c r="M52" t="s">
         <v>3</v>
       </c>
       <c r="N52" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="P52" t="s">
         <v>3</v>
       </c>
       <c r="Q52" t="s">
         <v>1</v>
       </c>
+      <c r="R52" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="S52" t="s">
         <v>3</v>
       </c>
       <c r="T52" t="s">
         <v>1</v>
       </c>
+      <c r="U52" s="1"/>
       <c r="V52" t="s">
         <v>3</v>
       </c>
@@ -4274,71 +4196,54 @@
       <c r="AC52" t="s">
         <v>1</v>
       </c>
-      <c r="AD52">
+      <c r="AE52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ52">
         <v>500</v>
       </c>
-      <c r="AE52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>65</v>
-      </c>
       <c r="AK52" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>1</v>
       </c>
       <c r="AM52" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN52" t="s">
         <v>3</v>
       </c>
       <c r="AO52" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>45</v>
       </c>
       <c r="AS52" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW52" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY52" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA52" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY52" s="1"/>
+    </row>
+    <row r="53" spans="1:51">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4364,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
         <v>3</v>
@@ -4372,28 +4277,32 @@
       <c r="K53" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="L53" s="1"/>
       <c r="M53" t="s">
         <v>3</v>
       </c>
       <c r="N53" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="P53" t="s">
         <v>3</v>
       </c>
       <c r="Q53" t="s">
         <v>1</v>
       </c>
+      <c r="R53" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="S53" t="s">
         <v>3</v>
       </c>
       <c r="T53" t="s">
         <v>1</v>
       </c>
+      <c r="U53" s="1"/>
       <c r="V53" t="s">
         <v>3</v>
       </c>
@@ -4412,71 +4321,54 @@
       <c r="AC53" t="s">
         <v>1</v>
       </c>
-      <c r="AD53">
+      <c r="AE53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ53">
         <v>500</v>
       </c>
-      <c r="AE53" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>60</v>
-      </c>
       <c r="AK53" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>1</v>
       </c>
       <c r="AM53" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN53" t="s">
         <v>3</v>
       </c>
       <c r="AO53" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>45</v>
       </c>
       <c r="AS53" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX53" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY53" s="1"/>
+    </row>
+    <row r="54" spans="1:51">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J54" t="s">
         <v>3</v>
@@ -4511,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s">
         <v>3</v>
@@ -4519,19 +4411,25 @@
       <c r="N54" t="s">
         <v>1</v>
       </c>
-      <c r="O54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="P54" t="s">
         <v>3</v>
       </c>
       <c r="Q54" t="s">
         <v>1</v>
       </c>
+      <c r="R54" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="S54" t="s">
         <v>3</v>
       </c>
       <c r="T54" t="s">
         <v>1</v>
       </c>
+      <c r="U54" s="1"/>
       <c r="V54" t="s">
         <v>3</v>
       </c>
@@ -4550,71 +4448,54 @@
       <c r="AC54" t="s">
         <v>1</v>
       </c>
-      <c r="AD54">
+      <c r="AE54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ54">
         <v>500</v>
       </c>
-      <c r="AE54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>60</v>
-      </c>
       <c r="AK54" t="s">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>1</v>
       </c>
       <c r="AM54" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN54" t="s">
         <v>3</v>
       </c>
       <c r="AO54" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>45</v>
       </c>
       <c r="AS54" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT54" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV54" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW54" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY54" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA54" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY54" s="1"/>
+    </row>
+    <row r="55" spans="1:51">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4640,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s">
         <v>3</v>
@@ -4648,28 +4529,32 @@
       <c r="K55" t="s">
         <v>1</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="L55" s="1"/>
       <c r="M55" t="s">
         <v>3</v>
       </c>
       <c r="N55" t="s">
         <v>1</v>
       </c>
-      <c r="O55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="P55" t="s">
         <v>3</v>
       </c>
       <c r="Q55" t="s">
         <v>1</v>
       </c>
+      <c r="R55" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="S55" t="s">
         <v>3</v>
       </c>
       <c r="T55" t="s">
         <v>1</v>
       </c>
+      <c r="U55" s="1"/>
       <c r="V55" t="s">
         <v>3</v>
       </c>
@@ -4688,71 +4573,54 @@
       <c r="AC55" t="s">
         <v>1</v>
       </c>
-      <c r="AD55">
+      <c r="AE55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
         <v>500</v>
       </c>
-      <c r="AE55" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>65</v>
-      </c>
       <c r="AK55" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>1</v>
       </c>
       <c r="AM55" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AN55" t="s">
         <v>3</v>
       </c>
       <c r="AO55" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>45</v>
       </c>
       <c r="AS55" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT55" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW55" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX55" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY55" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA55" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:54">
+        <v>10</v>
+      </c>
+      <c r="AY55" s="1"/>
+    </row>
+    <row r="56" spans="1:51">
       <c r="C56" s="1"/>
       <c r="F56" s="1"/>
       <c r="I56" s="1"/>
@@ -4760,7 +4628,7 @@
       <c r="O56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:54">
+    <row r="57" spans="1:51">
       <c r="C57" s="1"/>
       <c r="F57" s="1"/>
       <c r="I57" s="1"/>
@@ -4768,7 +4636,7 @@
       <c r="O57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:54">
+    <row r="58" spans="1:51">
       <c r="C58" s="1"/>
       <c r="F58" s="1"/>
       <c r="I58" s="1"/>
@@ -4776,7 +4644,7 @@
       <c r="O58" s="1"/>
       <c r="AM58" s="1"/>
     </row>
-    <row r="59" spans="1:54">
+    <row r="59" spans="1:51">
       <c r="C59" s="1"/>
       <c r="F59" s="1"/>
       <c r="I59" s="1"/>
@@ -4784,7 +4652,7 @@
       <c r="O59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:54">
+    <row r="60" spans="1:51">
       <c r="C60" s="1"/>
       <c r="F60" s="1"/>
       <c r="I60" s="1"/>
@@ -4792,7 +4660,7 @@
       <c r="O60" s="1"/>
       <c r="AM60" s="1"/>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:51">
       <c r="C61" s="1"/>
       <c r="F61" s="1"/>
       <c r="I61" s="1"/>
@@ -4800,7 +4668,7 @@
       <c r="O61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:51">
       <c r="C62" s="1"/>
       <c r="F62" s="1"/>
       <c r="I62" s="1"/>
@@ -4808,7 +4676,7 @@
       <c r="O62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:51">
       <c r="C63" s="1"/>
       <c r="F63" s="1"/>
       <c r="I63" s="1"/>
@@ -4816,7 +4684,7 @@
       <c r="O63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:51">
       <c r="C64" s="1"/>
       <c r="F64" s="1"/>
       <c r="I64" s="1"/>
@@ -4842,7 +4710,7 @@
     </row>
     <row r="68" spans="1:39">
       <c r="B68" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:39">
@@ -4850,85 +4718,85 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L69" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="M69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="T69" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="U69" t="s">
         <v>9</v>
       </c>
       <c r="V69" t="s">
+        <v>41</v>
+      </c>
+      <c r="W69" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s">
         <v>55</v>
       </c>
-      <c r="W69" t="s">
-        <v>54</v>
-      </c>
-      <c r="X69" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>74</v>
-      </c>
       <c r="AE69" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AF69" t="s">
         <v>10</v>
@@ -4942,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4951,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>3</v>
@@ -4960,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s">
         <v>3</v>
@@ -4969,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M70" t="s">
         <v>3</v>
@@ -4978,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P70" t="s">
         <v>3</v>
@@ -4987,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S70" t="s">
         <v>3</v>
@@ -4996,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V70" t="s">
         <v>3</v>
@@ -5005,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y70" t="s">
         <v>3</v>
@@ -5014,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AB70" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AD70" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE70" t="s">
         <v>3</v>
@@ -5038,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -5047,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
@@ -5056,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s">
         <v>3</v>
@@ -5065,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M71" t="s">
         <v>3</v>
@@ -5074,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P71" t="s">
         <v>3</v>
@@ -5083,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="R71" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S71" t="s">
         <v>3</v>
@@ -5092,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="U71" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V71" t="s">
         <v>3</v>
@@ -5101,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="X71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y71" t="s">
         <v>3</v>
@@ -5110,13 +4978,13 @@
         <v>1</v>
       </c>
       <c r="AA71" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB71" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD71" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE71" t="s">
         <v>3</v>
@@ -5134,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -5143,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
@@ -5152,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s">
         <v>3</v>
@@ -5161,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M72" t="s">
         <v>3</v>
@@ -5170,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P72" t="s">
         <v>3</v>
@@ -5179,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S72" t="s">
         <v>3</v>
@@ -5188,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="U72" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V72" t="s">
         <v>3</v>
@@ -5197,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="X72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y72" t="s">
         <v>3</v>
@@ -5206,13 +5074,13 @@
         <v>1</v>
       </c>
       <c r="AA72" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB72" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD72" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE72" t="s">
         <v>3</v>
@@ -5230,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -5239,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
         <v>3</v>
@@ -5248,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s">
         <v>3</v>
@@ -5257,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M73" t="s">
         <v>3</v>
@@ -5266,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s">
         <v>3</v>
@@ -5275,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S73" t="s">
         <v>3</v>
@@ -5284,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V73" t="s">
         <v>3</v>
@@ -5293,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="X73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y73" t="s">
         <v>3</v>
@@ -5302,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="AA73" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB73" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD73" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE73" t="s">
         <v>3</v>
@@ -5326,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -5335,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
@@ -5344,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s">
         <v>3</v>
@@ -5353,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M74" t="s">
         <v>3</v>
@@ -5362,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P74" t="s">
         <v>3</v>
@@ -5371,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="R74" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S74" t="s">
         <v>3</v>
@@ -5380,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="U74" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="V74" t="s">
         <v>3</v>
@@ -5389,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="X74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y74" t="s">
         <v>3</v>
@@ -5398,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="AA74" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB74" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD74" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE74" t="s">
         <v>3</v>
@@ -5422,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -5431,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
@@ -5440,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s">
         <v>3</v>
@@ -5449,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M75" t="s">
         <v>3</v>
@@ -5458,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P75" t="s">
         <v>3</v>
@@ -5467,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="R75" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S75" t="s">
         <v>3</v>
@@ -5476,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="U75" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V75" t="s">
         <v>3</v>
@@ -5485,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="X75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y75" t="s">
         <v>3</v>
@@ -5494,13 +5362,13 @@
         <v>1</v>
       </c>
       <c r="AA75" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AB75" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AD75" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE75" t="s">
         <v>3</v>
@@ -5518,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -5527,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G76" t="s">
         <v>3</v>
@@ -5536,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s">
         <v>3</v>
@@ -5545,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="M76" t="s">
         <v>3</v>
@@ -5554,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P76" t="s">
         <v>3</v>
@@ -5563,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S76" t="s">
         <v>3</v>
@@ -5572,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="U76" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="V76" t="s">
         <v>3</v>
@@ -5581,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="X76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y76" t="s">
         <v>3</v>
@@ -5590,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="AA76" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB76" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD76" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE76" t="s">
         <v>3</v>
@@ -5614,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -5623,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s">
         <v>3</v>
@@ -5632,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s">
         <v>3</v>
@@ -5641,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M77" t="s">
         <v>3</v>
@@ -5650,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P77" t="s">
         <v>3</v>
@@ -5659,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="R77" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S77" t="s">
         <v>3</v>
@@ -5668,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="U77" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="V77" t="s">
         <v>3</v>
@@ -5677,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="X77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y77" t="s">
         <v>3</v>
@@ -5686,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="AA77" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB77" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD77" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE77" t="s">
         <v>3</v>
@@ -5710,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -5719,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
@@ -5728,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s">
         <v>3</v>
@@ -5737,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M78" t="s">
         <v>3</v>
@@ -5746,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P78" t="s">
         <v>3</v>
@@ -5755,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="R78" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S78" t="s">
         <v>3</v>
@@ -5764,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="V78" t="s">
         <v>3</v>
@@ -5773,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="X78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y78" t="s">
         <v>3</v>
@@ -5782,13 +5650,13 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AB78" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AD78" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE78" t="s">
         <v>3</v>
@@ -5806,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
@@ -5815,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
         <v>3</v>
@@ -5824,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s">
         <v>3</v>
@@ -5833,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M79" t="s">
         <v>3</v>
@@ -5842,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="P79" t="s">
         <v>3</v>
@@ -5851,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="R79" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="S79" t="s">
         <v>3</v>
@@ -5860,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="U79" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="V79" t="s">
         <v>3</v>
@@ -5869,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="X79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y79" t="s">
         <v>3</v>
@@ -5878,13 +5746,13 @@
         <v>1</v>
       </c>
       <c r="AA79" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AB79" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AD79" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AE79" t="s">
         <v>3</v>
@@ -5912,7 +5780,7 @@
     </row>
     <row r="82" spans="1:39">
       <c r="C82" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F82" s="1"/>
       <c r="L82" s="1"/>
@@ -5924,40 +5792,40 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G83" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K83" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L83" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M83" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N83" t="s">
         <v>10</v>
@@ -5972,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
@@ -5981,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
         <v>3</v>
@@ -5990,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J84" t="s">
         <v>3</v>
@@ -5999,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M84" t="s">
         <v>3</v>
@@ -6017,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
@@ -6026,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
         <v>3</v>
@@ -6035,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J85" t="s">
         <v>3</v>
@@ -6044,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
@@ -6062,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
@@ -6071,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
         <v>3</v>
@@ -6080,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J86" t="s">
         <v>3</v>
@@ -6089,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M86" t="s">
         <v>3</v>
@@ -6107,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
@@ -6116,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
@@ -6125,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J87" t="s">
         <v>3</v>
@@ -6134,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M87" t="s">
         <v>3</v>
@@ -6152,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
@@ -6161,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
         <v>3</v>
@@ -6170,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J88" t="s">
         <v>3</v>
@@ -6179,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M88" t="s">
         <v>3</v>
@@ -6197,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
@@ -6206,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
         <v>3</v>
@@ -6215,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J89" t="s">
         <v>3</v>
@@ -6224,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M89" t="s">
         <v>3</v>
@@ -6242,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
@@ -6251,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
@@ -6260,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J90" t="s">
         <v>3</v>
@@ -6269,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M90" t="s">
         <v>3</v>
@@ -6287,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -6296,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
@@ -6305,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J91" t="s">
         <v>3</v>
@@ -6314,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M91" t="s">
         <v>3</v>
@@ -6332,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -6341,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G92" t="s">
         <v>3</v>
@@ -6350,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J92" t="s">
         <v>3</v>
@@ -6359,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M92" t="s">
         <v>3</v>
@@ -6376,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
@@ -6385,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
@@ -6394,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J93" t="s">
         <v>3</v>
@@ -6403,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="M93" t="s">
         <v>3</v>
@@ -6414,10 +6282,10 @@
     </row>
     <row r="95" spans="1:39">
       <c r="C95" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:39">
@@ -6425,19 +6293,19 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
@@ -6451,19 +6319,19 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
         <v>3</v>
@@ -6478,19 +6346,19 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G98" t="s">
         <v>3</v>
@@ -6505,19 +6373,19 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
         <v>3</v>
@@ -6532,19 +6400,19 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
@@ -6559,19 +6427,19 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
         <v>3</v>
@@ -6586,19 +6454,19 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
@@ -6613,19 +6481,19 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
@@ -6640,19 +6508,19 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
@@ -6667,19 +6535,19 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E105" t="s">
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
@@ -6699,19 +6567,19 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D107" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G107" t="s">
         <v>3</v>
@@ -6725,19 +6593,19 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
@@ -6751,19 +6619,19 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E109" t="s">
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G109" t="s">
         <v>3</v>
@@ -6777,19 +6645,19 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E110" t="s">
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G110" t="s">
         <v>3</v>
@@ -6803,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E111" t="s">
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="G111" t="s">
         <v>3</v>
@@ -6833,19 +6701,19 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E113" t="s">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
@@ -6859,19 +6727,19 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E114" t="s">
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="G114" t="s">
         <v>3</v>
@@ -6885,19 +6753,19 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E115" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G115" t="s">
         <v>3</v>
@@ -6911,19 +6779,19 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E116" t="s">
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
@@ -6937,19 +6805,19 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E117" t="s">
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
         <v>3</v>
@@ -6963,19 +6831,19 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E118" t="s">
         <v>1</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G118" t="s">
         <v>3</v>
@@ -6989,19 +6857,19 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E119" t="s">
         <v>1</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
         <v>3</v>
@@ -7015,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E120" t="s">
         <v>1</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G120" t="s">
         <v>3</v>
@@ -7041,19 +6909,19 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E121" t="s">
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G121" t="s">
         <v>3</v>
@@ -7067,19 +6935,19 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E122" t="s">
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G122" t="s">
         <v>3</v>
@@ -7093,19 +6961,19 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
         <v>1</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G123" t="s">
         <v>3</v>
@@ -7119,19 +6987,19 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
         <v>1</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G124" t="s">
         <v>3</v>
@@ -7145,19 +7013,19 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E125" t="s">
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G125" t="s">
         <v>3</v>
@@ -7171,19 +7039,19 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E126" t="s">
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G126" t="s">
         <v>3</v>
@@ -7197,19 +7065,19 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G127" t="s">
         <v>3</v>
@@ -7223,19 +7091,19 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D128" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E128" t="s">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G128" t="s">
         <v>3</v>
@@ -7249,13 +7117,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
         <v>1</v>
@@ -7275,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E130" t="s">
         <v>1</v>
@@ -7301,19 +7169,19 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D134" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E134" t="s">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G134" t="s">
         <v>3</v>
@@ -7327,19 +7195,19 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
         <v>3</v>
@@ -7353,19 +7221,19 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E136" t="s">
         <v>1</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G136" t="s">
         <v>3</v>
@@ -7379,19 +7247,19 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E137" t="s">
         <v>1</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G137" t="s">
         <v>3</v>
@@ -7405,19 +7273,19 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E138" t="s">
         <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G138" t="s">
         <v>3</v>
@@ -7431,19 +7299,19 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D139" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E139" t="s">
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G139" t="s">
         <v>3</v>
@@ -7457,19 +7325,19 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E140" t="s">
         <v>1</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G140" t="s">
         <v>3</v>
@@ -7492,7 +7360,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="C144" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -7540,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P145" t="s">
         <v>3</v>
@@ -7567,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="X145" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Y145" t="s">
         <v>3</v>
@@ -7620,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P146" t="s">
         <v>3</v>
@@ -7647,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="X146" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Y146" t="s">
         <v>3</v>
@@ -7700,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P147" t="s">
         <v>3</v>
@@ -7727,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="X147" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Y147" t="s">
         <v>3</v>
@@ -7780,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P148" t="s">
         <v>3</v>
@@ -7807,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="X148" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Y148" t="s">
         <v>3</v>
@@ -7860,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="O149" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P149" t="s">
         <v>3</v>
@@ -7887,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="X149" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Y149" t="s">
         <v>3</v>
@@ -7913,58 +7781,58 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I154" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="J154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L154" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="M154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O154" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Q154" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R154" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="S154" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="T154" t="s">
         <v>10</v>
@@ -7978,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
@@ -7987,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G155" t="s">
         <v>3</v>
@@ -7996,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="J155" t="s">
         <v>3</v>
@@ -8005,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M155" t="s">
         <v>3</v>
@@ -8014,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P155" t="s">
         <v>3</v>
@@ -8023,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="R155" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="S155" t="s">
         <v>3</v>
@@ -8040,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
@@ -8049,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G156" t="s">
         <v>3</v>
@@ -8065,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M156" t="s">
         <v>3</v>
@@ -8074,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P156" t="s">
         <v>3</v>
@@ -8083,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="R156" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="S156" t="s">
         <v>3</v>
@@ -8100,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>3</v>
@@ -8109,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G157" t="s">
         <v>3</v>
@@ -8118,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J157" t="s">
         <v>3</v>
@@ -8127,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="M157" t="s">
         <v>3</v>
@@ -8136,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P157" t="s">
         <v>3</v>
@@ -8145,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="R157" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S157" t="s">
         <v>3</v>
@@ -8162,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D158" t="s">
         <v>3</v>
@@ -8171,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G158" t="s">
         <v>3</v>
@@ -8180,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J158" t="s">
         <v>3</v>
@@ -8189,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M158" t="s">
         <v>3</v>
@@ -8198,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P158" t="s">
         <v>3</v>
@@ -8207,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="R158" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S158" t="s">
         <v>3</v>
@@ -8224,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -8233,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
@@ -8242,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J159" t="s">
         <v>3</v>
@@ -8251,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M159" t="s">
         <v>3</v>
@@ -8260,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P159" t="s">
         <v>3</v>
@@ -8269,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="R159" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S159" t="s">
         <v>3</v>
@@ -8286,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -8295,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G160" t="s">
         <v>3</v>
@@ -8304,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J160" t="s">
         <v>3</v>
@@ -8313,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M160" t="s">
         <v>3</v>
@@ -8322,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P160" t="s">
         <v>3</v>
@@ -8331,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S160" t="s">
         <v>3</v>
@@ -8348,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -8357,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G161" t="s">
         <v>3</v>
@@ -8366,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="J161" t="s">
         <v>3</v>
@@ -8375,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="M161" t="s">
         <v>3</v>
@@ -8384,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="P161" t="s">
         <v>3</v>
@@ -8393,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="S161" t="s">
         <v>3</v>
@@ -8423,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E164" t="s">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G164" t="s">
         <v>3</v>
@@ -8453,19 +8321,19 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D165" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E165" t="s">
         <v>1</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G165" t="s">
         <v>3</v>
@@ -8483,19 +8351,19 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D166" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
         <v>1</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G166" t="s">
         <v>3</v>
@@ -8513,19 +8381,19 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D167" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E167" t="s">
         <v>1</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G167" t="s">
         <v>3</v>
@@ -8543,19 +8411,19 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D168" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E168" t="s">
         <v>1</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G168" t="s">
         <v>3</v>
@@ -8573,19 +8441,19 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D169" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E169" t="s">
         <v>1</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G169" t="s">
         <v>3</v>
@@ -8603,19 +8471,19 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E170" t="s">
         <v>1</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G170" t="s">
         <v>3</v>
@@ -8633,19 +8501,19 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D171" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E171" t="s">
         <v>1</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G171" t="s">
         <v>3</v>
@@ -8659,19 +8527,19 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D172" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E172" t="s">
         <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G172" t="s">
         <v>3</v>
@@ -8685,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D173" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
         <v>1</v>
@@ -8709,13 +8577,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D174" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E174" t="s">
         <v>1</v>
@@ -8733,19 +8601,19 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E175" t="s">
         <v>1</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="G175" t="s">
         <v>3</v>
@@ -8754,18 +8622,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="33.75" thickBot="1">
+    <row r="176" spans="1:20" ht="17.25" thickBot="1">
       <c r="A176" t="s">
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E176" t="s">
         <v>1</v>
@@ -8778,24 +8646,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="33.75" thickBot="1">
+    <row r="177" spans="1:20" ht="33.75" thickBot="1">
       <c r="A177" t="s">
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D177" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E177" t="s">
         <v>1</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G177" t="s">
         <v>3</v>
@@ -8804,18 +8672,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="66.75" thickBot="1">
+    <row r="178" spans="1:20" ht="66.75" thickBot="1">
       <c r="A178" t="s">
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E178" t="s">
         <v>1</v>
@@ -8828,24 +8696,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17.25" thickBot="1">
+    <row r="179" spans="1:20" ht="17.25" thickBot="1">
       <c r="A179" t="s">
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E179" t="s">
         <v>1</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G179" t="s">
         <v>3</v>
@@ -8854,12 +8722,511 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:20">
       <c r="C180" s="1"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:20">
       <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:20" ht="16.5">
+      <c r="C182" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" t="s">
+        <v>92</v>
+      </c>
+      <c r="D183" t="s">
+        <v>41</v>
+      </c>
+      <c r="E183" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" t="s">
+        <v>184</v>
+      </c>
+      <c r="G183" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" t="s">
+        <v>40</v>
+      </c>
+      <c r="I183" t="s">
+        <v>182</v>
+      </c>
+      <c r="J183" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" t="s">
+        <v>40</v>
+      </c>
+      <c r="L183" t="s">
+        <v>185</v>
+      </c>
+      <c r="M183" t="s">
+        <v>41</v>
+      </c>
+      <c r="N183" t="s">
+        <v>40</v>
+      </c>
+      <c r="O183" t="s">
+        <v>183</v>
+      </c>
+      <c r="P183" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>40</v>
+      </c>
+      <c r="R183" t="s">
+        <v>192</v>
+      </c>
+      <c r="S183" t="s">
+        <v>41</v>
+      </c>
+      <c r="T183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G184" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J184" t="s">
+        <v>3</v>
+      </c>
+      <c r="K184" t="s">
+        <v>1</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M184" t="s">
+        <v>3</v>
+      </c>
+      <c r="N184" t="s">
+        <v>1</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P184" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>1</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S184" t="s">
+        <v>3</v>
+      </c>
+      <c r="T184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G185" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1</v>
+      </c>
+      <c r="I185" s="1"/>
+      <c r="J185" t="s">
+        <v>3</v>
+      </c>
+      <c r="K185" t="s">
+        <v>1</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M185" t="s">
+        <v>3</v>
+      </c>
+      <c r="N185" t="s">
+        <v>1</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P185" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>1</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S185" t="s">
+        <v>3</v>
+      </c>
+      <c r="T185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G186" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J186" t="s">
+        <v>3</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M186" t="s">
+        <v>3</v>
+      </c>
+      <c r="N186" t="s">
+        <v>1</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P186" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>1</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S186" t="s">
+        <v>3</v>
+      </c>
+      <c r="T186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G187" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J187" t="s">
+        <v>3</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M187" t="s">
+        <v>3</v>
+      </c>
+      <c r="N187" t="s">
+        <v>1</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P187" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>1</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S187" t="s">
+        <v>3</v>
+      </c>
+      <c r="T187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G188" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J188" t="s">
+        <v>3</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M188" t="s">
+        <v>3</v>
+      </c>
+      <c r="N188" t="s">
+        <v>1</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P188" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>1</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S188" t="s">
+        <v>3</v>
+      </c>
+      <c r="T188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G189" t="s">
+        <v>3</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J189" t="s">
+        <v>3</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M189" t="s">
+        <v>3</v>
+      </c>
+      <c r="N189" t="s">
+        <v>1</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P189" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>1</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S189" t="s">
+        <v>3</v>
+      </c>
+      <c r="T189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G190" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J190" t="s">
+        <v>3</v>
+      </c>
+      <c r="K190" t="s">
+        <v>1</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M190" t="s">
+        <v>3</v>
+      </c>
+      <c r="N190" t="s">
+        <v>1</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P190" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>1</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S190" t="s">
+        <v>3</v>
+      </c>
+      <c r="T190" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8887,7 +9254,7 @@
   <sheetData>
     <row r="24" spans="12:16">
       <c r="L24" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M24" s="2">
         <v>2147483648</v>
@@ -8901,7 +9268,7 @@
     </row>
     <row r="25" spans="12:16">
       <c r="L25" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="M25" s="2">
         <v>2040109466</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="271">
   <si>
     <t>&lt;tr&gt;</t>
   </si>
@@ -778,6 +778,57 @@
   </si>
   <si>
     <t>&lt;span class="label label-info"&gt;</t>
+  </si>
+  <si>
+    <t>Тарифные подписки и шаблоны</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Стоимость активации, руб.</t>
+  </si>
+  <si>
+    <t>Пакет 1024+50</t>
+  </si>
+  <si>
+    <t>Пакет 1024</t>
+  </si>
+  <si>
+    <t>Пакет 128</t>
+  </si>
+  <si>
+    <t>Пакет 128+50</t>
+  </si>
+  <si>
+    <t>Пакет 256</t>
+  </si>
+  <si>
+    <t>Пакет 256+50</t>
+  </si>
+  <si>
+    <t>Пакет продления 1 Гб</t>
+  </si>
+  <si>
+    <t>Пакет 1 Гб</t>
+  </si>
+  <si>
+    <t>Предоставление Обычного номера (2837)</t>
+  </si>
+  <si>
+    <t>Плата за замену номера (41210112)</t>
+  </si>
+  <si>
+    <t>Плата за предоставление  Обычного номера (41210150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Включить</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA192"/>
+  <dimension ref="A1:BA208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V192" sqref="A185:V192"/>
+      <selection activeCell="W202" sqref="W202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8641,7 +8692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="33.75" thickBot="1">
+    <row r="179" spans="1:22" ht="17.25" thickBot="1">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -9262,6 +9313,804 @@
         <v>3</v>
       </c>
       <c r="V192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="C194" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" t="s">
+        <v>37</v>
+      </c>
+      <c r="F195" t="s">
+        <v>89</v>
+      </c>
+      <c r="G195" t="s">
+        <v>38</v>
+      </c>
+      <c r="H195" t="s">
+        <v>37</v>
+      </c>
+      <c r="I195" t="s">
+        <v>255</v>
+      </c>
+      <c r="J195" t="s">
+        <v>38</v>
+      </c>
+      <c r="K195" t="s">
+        <v>37</v>
+      </c>
+      <c r="L195" t="s">
+        <v>256</v>
+      </c>
+      <c r="M195" t="s">
+        <v>38</v>
+      </c>
+      <c r="N195" t="s">
+        <v>37</v>
+      </c>
+      <c r="P195" t="s">
+        <v>252</v>
+      </c>
+      <c r="R195" t="s">
+        <v>38</v>
+      </c>
+      <c r="S195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>6789</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G196" t="s">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J196" t="s">
+        <v>3</v>
+      </c>
+      <c r="K196" t="s">
+        <v>1</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M196" t="s">
+        <v>3</v>
+      </c>
+      <c r="N196" t="s">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>43</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R196" t="s">
+        <v>3</v>
+      </c>
+      <c r="S196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>6799</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G197" t="s">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J197" t="s">
+        <v>3</v>
+      </c>
+      <c r="K197" t="s">
+        <v>1</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M197" t="s">
+        <v>3</v>
+      </c>
+      <c r="N197" t="s">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>43</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R197" t="s">
+        <v>3</v>
+      </c>
+      <c r="S197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>6783</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G198" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J198" t="s">
+        <v>3</v>
+      </c>
+      <c r="K198" t="s">
+        <v>1</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M198" t="s">
+        <v>3</v>
+      </c>
+      <c r="N198" t="s">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>253</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R198" t="s">
+        <v>3</v>
+      </c>
+      <c r="S198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>6793</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G199" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J199" t="s">
+        <v>3</v>
+      </c>
+      <c r="K199" t="s">
+        <v>1</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M199" t="s">
+        <v>3</v>
+      </c>
+      <c r="N199" t="s">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>253</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R199" t="s">
+        <v>3</v>
+      </c>
+      <c r="S199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G200" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J200" t="s">
+        <v>3</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M200" t="s">
+        <v>3</v>
+      </c>
+      <c r="N200" t="s">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>253</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R200" t="s">
+        <v>3</v>
+      </c>
+      <c r="S200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G201" t="s">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J201" t="s">
+        <v>3</v>
+      </c>
+      <c r="K201" t="s">
+        <v>1</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M201" t="s">
+        <v>3</v>
+      </c>
+      <c r="N201" t="s">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>253</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R201" t="s">
+        <v>3</v>
+      </c>
+      <c r="S201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>190</v>
+      </c>
+      <c r="G202" t="s">
+        <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>190</v>
+      </c>
+      <c r="J202" t="s">
+        <v>3</v>
+      </c>
+      <c r="K202" t="s">
+        <v>1</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M202" t="s">
+        <v>3</v>
+      </c>
+      <c r="N202" t="s">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>253</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R202" t="s">
+        <v>3</v>
+      </c>
+      <c r="S202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>57</v>
+      </c>
+      <c r="G203" t="s">
+        <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>57</v>
+      </c>
+      <c r="J203" t="s">
+        <v>3</v>
+      </c>
+      <c r="K203" t="s">
+        <v>1</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M203" t="s">
+        <v>3</v>
+      </c>
+      <c r="N203" t="s">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>253</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R203" t="s">
+        <v>3</v>
+      </c>
+      <c r="S203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>192</v>
+      </c>
+      <c r="G204" t="s">
+        <v>3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>192</v>
+      </c>
+      <c r="J204" t="s">
+        <v>3</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M204" t="s">
+        <v>3</v>
+      </c>
+      <c r="N204" t="s">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>253</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R204" t="s">
+        <v>3</v>
+      </c>
+      <c r="S204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>193</v>
+      </c>
+      <c r="G205" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>193</v>
+      </c>
+      <c r="J205" t="s">
+        <v>3</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M205" t="s">
+        <v>3</v>
+      </c>
+      <c r="N205" t="s">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>253</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R205" t="s">
+        <v>3</v>
+      </c>
+      <c r="S205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>263</v>
+      </c>
+      <c r="G206" t="s">
+        <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>264</v>
+      </c>
+      <c r="J206" t="s">
+        <v>3</v>
+      </c>
+      <c r="K206" t="s">
+        <v>1</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M206" t="s">
+        <v>3</v>
+      </c>
+      <c r="N206" t="s">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>253</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R206" t="s">
+        <v>3</v>
+      </c>
+      <c r="S206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>265</v>
+      </c>
+      <c r="G207" t="s">
+        <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1</v>
+      </c>
+      <c r="I207" t="s">
+        <v>267</v>
+      </c>
+      <c r="J207" t="s">
+        <v>3</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M207" t="s">
+        <v>3</v>
+      </c>
+      <c r="N207" t="s">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>253</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R207" t="s">
+        <v>3</v>
+      </c>
+      <c r="S207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>186</v>
+      </c>
+      <c r="G208" t="s">
+        <v>3</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1</v>
+      </c>
+      <c r="I208" t="s">
+        <v>266</v>
+      </c>
+      <c r="J208" t="s">
+        <v>3</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M208" t="s">
+        <v>3</v>
+      </c>
+      <c r="N208" t="s">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>253</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R208" t="s">
+        <v>3</v>
+      </c>
+      <c r="S208" t="s">
         <v>10</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="295">
   <si>
     <t>&lt;tr&gt;</t>
   </si>
@@ -829,6 +829,78 @@
   </si>
   <si>
     <t>Включить</t>
+  </si>
+  <si>
+    <t>КЛИЕНТЫ</t>
+  </si>
+  <si>
+    <t>512200000000012345</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>ООО Нино</t>
+  </si>
+  <si>
+    <t>ОАО Петро</t>
+  </si>
+  <si>
+    <t>ООО Серго</t>
+  </si>
+  <si>
+    <t>ООО Кацо</t>
+  </si>
+  <si>
+    <t>ООО Кац</t>
+  </si>
+  <si>
+    <t>ООО Вано</t>
+  </si>
+  <si>
+    <t>ООО Марго</t>
+  </si>
+  <si>
+    <t>ООО Павло</t>
+  </si>
+  <si>
+    <t>ООО Ирино</t>
+  </si>
+  <si>
+    <t>ОАО Эдуардо</t>
+  </si>
+  <si>
+    <t>ООО Михо</t>
+  </si>
+  <si>
+    <t>Баланс, руб.</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>6958</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>-4587</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>547</t>
   </si>
 </sst>
 </file>
@@ -917,7 +989,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -930,6 +1002,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1226,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA208"/>
+  <dimension ref="A1:BA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W202" sqref="W202"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10114,6 +10187,807 @@
         <v>10</v>
       </c>
     </row>
+    <row r="210" spans="1:22">
+      <c r="C210" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>37</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" t="s">
+        <v>37</v>
+      </c>
+      <c r="F211" t="s">
+        <v>273</v>
+      </c>
+      <c r="G211" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211" t="s">
+        <v>37</v>
+      </c>
+      <c r="I211" t="s">
+        <v>220</v>
+      </c>
+      <c r="J211" t="s">
+        <v>38</v>
+      </c>
+      <c r="K211" t="s">
+        <v>37</v>
+      </c>
+      <c r="L211" t="s">
+        <v>285</v>
+      </c>
+      <c r="M211" t="s">
+        <v>38</v>
+      </c>
+      <c r="N211" t="s">
+        <v>37</v>
+      </c>
+      <c r="O211" t="s">
+        <v>244</v>
+      </c>
+      <c r="P211" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>37</v>
+      </c>
+      <c r="S211" t="s">
+        <v>41</v>
+      </c>
+      <c r="U211" t="s">
+        <v>38</v>
+      </c>
+      <c r="V211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G212" t="s">
+        <v>3</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J212" t="s">
+        <v>3</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1</v>
+      </c>
+      <c r="L212" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M212" t="s">
+        <v>3</v>
+      </c>
+      <c r="N212" t="s">
+        <v>1</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P212" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>1</v>
+      </c>
+      <c r="R212" t="s">
+        <v>40</v>
+      </c>
+      <c r="S212" t="s">
+        <v>56</v>
+      </c>
+      <c r="T212" t="s">
+        <v>42</v>
+      </c>
+      <c r="U212" t="s">
+        <v>3</v>
+      </c>
+      <c r="V212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G213" t="s">
+        <v>3</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J213" t="s">
+        <v>3</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1</v>
+      </c>
+      <c r="L213" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="M213" t="s">
+        <v>3</v>
+      </c>
+      <c r="N213" t="s">
+        <v>1</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P213" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>1</v>
+      </c>
+      <c r="R213" t="s">
+        <v>43</v>
+      </c>
+      <c r="S213" t="s">
+        <v>56</v>
+      </c>
+      <c r="T213" t="s">
+        <v>42</v>
+      </c>
+      <c r="U213" t="s">
+        <v>3</v>
+      </c>
+      <c r="V213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G214" t="s">
+        <v>3</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J214" t="s">
+        <v>3</v>
+      </c>
+      <c r="K214" t="s">
+        <v>1</v>
+      </c>
+      <c r="L214" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M214" t="s">
+        <v>3</v>
+      </c>
+      <c r="N214" t="s">
+        <v>1</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P214" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>1</v>
+      </c>
+      <c r="R214" t="s">
+        <v>43</v>
+      </c>
+      <c r="S214" t="s">
+        <v>56</v>
+      </c>
+      <c r="T214" t="s">
+        <v>42</v>
+      </c>
+      <c r="U214" t="s">
+        <v>3</v>
+      </c>
+      <c r="V214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G215" t="s">
+        <v>3</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J215" t="s">
+        <v>3</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1</v>
+      </c>
+      <c r="L215" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="M215" t="s">
+        <v>3</v>
+      </c>
+      <c r="N215" t="s">
+        <v>1</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P215" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>1</v>
+      </c>
+      <c r="R215" t="s">
+        <v>43</v>
+      </c>
+      <c r="S215" t="s">
+        <v>56</v>
+      </c>
+      <c r="T215" t="s">
+        <v>42</v>
+      </c>
+      <c r="U215" t="s">
+        <v>3</v>
+      </c>
+      <c r="V215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G216" t="s">
+        <v>3</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J216" t="s">
+        <v>3</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1</v>
+      </c>
+      <c r="L216" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M216" t="s">
+        <v>3</v>
+      </c>
+      <c r="N216" t="s">
+        <v>1</v>
+      </c>
+      <c r="O216" s="1"/>
+      <c r="P216" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>1</v>
+      </c>
+      <c r="R216" t="s">
+        <v>43</v>
+      </c>
+      <c r="S216" t="s">
+        <v>56</v>
+      </c>
+      <c r="T216" t="s">
+        <v>42</v>
+      </c>
+      <c r="U216" t="s">
+        <v>3</v>
+      </c>
+      <c r="V216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G217" t="s">
+        <v>3</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J217" t="s">
+        <v>3</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M217" t="s">
+        <v>3</v>
+      </c>
+      <c r="N217" t="s">
+        <v>1</v>
+      </c>
+      <c r="O217" s="1"/>
+      <c r="P217" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>1</v>
+      </c>
+      <c r="R217" t="s">
+        <v>40</v>
+      </c>
+      <c r="S217" t="s">
+        <v>243</v>
+      </c>
+      <c r="T217" t="s">
+        <v>42</v>
+      </c>
+      <c r="U217" t="s">
+        <v>3</v>
+      </c>
+      <c r="V217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G218" t="s">
+        <v>3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J218" t="s">
+        <v>3</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1</v>
+      </c>
+      <c r="L218" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M218" t="s">
+        <v>3</v>
+      </c>
+      <c r="N218" t="s">
+        <v>1</v>
+      </c>
+      <c r="O218" s="1"/>
+      <c r="P218" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>1</v>
+      </c>
+      <c r="R218" t="s">
+        <v>43</v>
+      </c>
+      <c r="S218" t="s">
+        <v>56</v>
+      </c>
+      <c r="T218" t="s">
+        <v>42</v>
+      </c>
+      <c r="U218" t="s">
+        <v>3</v>
+      </c>
+      <c r="V218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G219" t="s">
+        <v>3</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J219" t="s">
+        <v>3</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1</v>
+      </c>
+      <c r="L219" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M219" t="s">
+        <v>3</v>
+      </c>
+      <c r="N219" t="s">
+        <v>1</v>
+      </c>
+      <c r="O219" s="1"/>
+      <c r="P219" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>1</v>
+      </c>
+      <c r="R219" t="s">
+        <v>43</v>
+      </c>
+      <c r="S219" t="s">
+        <v>56</v>
+      </c>
+      <c r="T219" t="s">
+        <v>42</v>
+      </c>
+      <c r="U219" t="s">
+        <v>3</v>
+      </c>
+      <c r="V219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G220" t="s">
+        <v>3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J220" t="s">
+        <v>3</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1</v>
+      </c>
+      <c r="L220" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M220" t="s">
+        <v>3</v>
+      </c>
+      <c r="N220" t="s">
+        <v>1</v>
+      </c>
+      <c r="O220" s="1"/>
+      <c r="P220" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>1</v>
+      </c>
+      <c r="R220" t="s">
+        <v>40</v>
+      </c>
+      <c r="S220" t="s">
+        <v>243</v>
+      </c>
+      <c r="T220" t="s">
+        <v>42</v>
+      </c>
+      <c r="U220" t="s">
+        <v>3</v>
+      </c>
+      <c r="V220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G221" t="s">
+        <v>3</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J221" t="s">
+        <v>3</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1</v>
+      </c>
+      <c r="L221" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M221" t="s">
+        <v>3</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1</v>
+      </c>
+      <c r="O221" s="1"/>
+      <c r="P221" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>1</v>
+      </c>
+      <c r="R221" t="s">
+        <v>40</v>
+      </c>
+      <c r="S221" t="s">
+        <v>243</v>
+      </c>
+      <c r="T221" t="s">
+        <v>42</v>
+      </c>
+      <c r="U221" t="s">
+        <v>3</v>
+      </c>
+      <c r="V221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G222" t="s">
+        <v>3</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J222" t="s">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1</v>
+      </c>
+      <c r="L222" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M222" t="s">
+        <v>3</v>
+      </c>
+      <c r="N222" t="s">
+        <v>1</v>
+      </c>
+      <c r="O222" s="1"/>
+      <c r="P222" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>1</v>
+      </c>
+      <c r="R222" t="s">
+        <v>43</v>
+      </c>
+      <c r="S222" t="s">
+        <v>56</v>
+      </c>
+      <c r="T222" t="s">
+        <v>42</v>
+      </c>
+      <c r="U222" t="s">
+        <v>3</v>
+      </c>
+      <c r="V222" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F135" r:id="rId1"/>
